--- a/medicine/Enfance/Marina_Chapman/Marina_Chapman.xlsx
+++ b/medicine/Enfance/Marina_Chapman/Marina_Chapman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marina Chapman, née en 1950 à Bradford en Angleterre, est une femme qui aurait vécu durant 5 ans (de 5 à 10 ans) parmi des singes Cebus après son enlèvement puis abandon en forêt colombienne dans les années 1950[1]. Elle habite aujourd'hui à Bradford et est mère d'une fille. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina Chapman, née en 1950 à Bradford en Angleterre, est une femme qui aurait vécu durant 5 ans (de 5 à 10 ans) parmi des singes Cebus après son enlèvement puis abandon en forêt colombienne dans les années 1950. Elle habite aujourd'hui à Bradford et est mère d'une fille. 
 Cette histoire a été très controversée par de nombreux scientifiques, ainsi, des tests ont été faits sur Marina Chapman pour déterminer la véracité de ses propos. Notamment à propos des lignes de Harris retrouvées sur ses os (zones sur lesquelles la densité osseuse est supérieure au reste de l'os à cause du stress de l'os, visibles par rayon X) qui sont permanentes, peuvent être datées, et signifient une carence alimentaire.
 </t>
         </is>
